--- a/Admin/exported_data.xlsx
+++ b/Admin/exported_data.xlsx
@@ -518,20 +518,16 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
+      <c r="B2"/>
+      <c r="C2"/>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -544,7 +540,7 @@
       </c>
       <c r="J2"/>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -612,17 +608,13 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
+      <c r="B4"/>
+      <c r="C4"/>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -634,14 +626,14 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4"/>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -797,7 +789,7 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1026,16 +1018,16 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1044,14 +1036,14 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13"/>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1119,20 +1111,16 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
+      <c r="B15"/>
+      <c r="C15"/>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1145,7 +1133,7 @@
       </c>
       <c r="J15"/>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1214,35 +1202,35 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17"/>
       <c r="K17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>

--- a/Admin/exported_data.xlsx
+++ b/Admin/exported_data.xlsx
@@ -518,19 +518,23 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -540,7 +544,7 @@
       </c>
       <c r="J2"/>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1202,7 +1206,7 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1211,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1227,7 +1231,7 @@
       </c>
       <c r="J17"/>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>0</v>

--- a/Admin/exported_data.xlsx
+++ b/Admin/exported_data.xlsx
@@ -525,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>

--- a/Admin/exported_data.xlsx
+++ b/Admin/exported_data.xlsx
@@ -110,7 +110,7 @@
     <t>B.Silang</t>
   </si>
   <si>
-    <t>Sitio Sto.Nino</t>
+    <t>Sitio Sto. Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -702,16 +702,20 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -724,7 +728,7 @@
       </c>
       <c r="J6"/>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -734,7 +738,7 @@
       </c>
       <c r="N6"/>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -792,12 +796,8 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
+      <c r="B8"/>
+      <c r="C8"/>
       <c r="D8">
         <v>0</v>
       </c>
@@ -1115,19 +1115,23 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1140,14 +1144,14 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15"/>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1206,22 +1210,22 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1231,17 +1235,17 @@
       </c>
       <c r="J17"/>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17"/>
       <c r="O17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17">
         <v>0</v>

--- a/Admin/exported_data.xlsx
+++ b/Admin/exported_data.xlsx
@@ -518,14 +518,10 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
+      <c r="B2"/>
+      <c r="C2"/>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -534,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -544,7 +540,7 @@
       </c>
       <c r="J2"/>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -702,20 +698,16 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
+      <c r="B6"/>
+      <c r="C6"/>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -728,7 +720,7 @@
       </c>
       <c r="J6"/>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -738,7 +730,7 @@
       </c>
       <c r="N6"/>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -976,19 +968,23 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -998,7 +994,7 @@
       </c>
       <c r="J12"/>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1011,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1021,23 +1017,19 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1047,7 +1039,7 @@
       </c>
       <c r="J13"/>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1115,23 +1107,19 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
+      <c r="B15"/>
+      <c r="C15"/>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1144,14 +1132,14 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15"/>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1210,22 +1198,22 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
       <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1235,20 +1223,20 @@
       </c>
       <c r="J17"/>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17"/>
       <c r="O17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
         <v>0</v>
